--- a/Oct9_100pct_CW_SIM.xlsx
+++ b/Oct9_100pct_CW_SIM.xlsx
@@ -8,6 +8,10 @@
   <sheets>
     <sheet name="mobilenetv2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="InitializationSheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="inceptionv3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="resnet50" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="small_xception" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="basic_cnn" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -17,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,6 +34,9 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -39,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -62,13 +69,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -9207,4 +9223,992 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_loss</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_loss</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_loss</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>val_loss</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_loss</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_loss</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_loss</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10.45987987518311</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.391012907028198</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.391093730926514</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.395424127578735</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9200066924095154</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.391012907028198</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4289896488189697</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9203035831451416</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.391093730926514</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.421833336353302</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9214993715286255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.395424127578735</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4181900918483734</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9.95710563659668</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.241003274917603</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.235007762908936</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.243280649185181</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9028200507164001</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.241003274917603</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6574700474739075</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.9017409086227417</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.235007762908936</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.655387818813324</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.9035174250602722</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3.243280649185181</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.7173347473144531</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_loss</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_loss</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_loss</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>val_loss</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_loss</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_loss</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_loss</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10.25038146972656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.375752687454224</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.377896308898926</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.385687589645386</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9312628507614136</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.375752687454224</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3130570650100708</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9310030341148376</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.377896308898926</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3227506279945374</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9315228462219238</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.385687589645386</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.3316635191440582</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9.945385932922363</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.291854381561279</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.289376974105835</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.282281637191772</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9139741063117981</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.291854381561279</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.5330557227134705</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.9133756160736084</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.289376974105835</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.4997397065162659</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.9113840460777283</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3.282281637191772</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.6335241794586182</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_loss</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_loss</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_loss</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>val_loss</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_loss</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_loss</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_loss</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9.977705001831055</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.325630187988281</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.326628446578979</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.325443744659424</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9200508594512939</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.325630187988281</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5013336539268494</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9201908707618713</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.326628446578979</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.471732497215271</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9198001623153687</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.325443744659424</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4596968293190002</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9.943368911743164</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.31652045249939</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.315178394317627</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.311667919158936</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9197613000869751</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.31652045249939</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6418532133102417</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.9195626974105835</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.315178394317627</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6413326263427734</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.9179222583770752</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3.311667919158936</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.6413326263427734</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_loss</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_loss</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_loss</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Focus_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>StigX_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>StigY_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>val_loss</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_loss</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_loss</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_loss</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>val_Focus_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigX_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>val_StigY_Label_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>9.950044631958008</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.317525148391724</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.316503286361694</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.316022157669067</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9153372645378113</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.317525148391724</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5330167412757874</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9148170351982117</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.316503286361694</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5429054498672485</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9147990345954895</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.316022157669067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5372454524040222</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10.07488441467285</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.369866609573364</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.349167585372925</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.355849981307983</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.8932181596755981</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.369866609573364</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.4195731282234192</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.8916942477226257</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.349167585372925</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.405517965555191</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.893059253692627</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3.355849981307983</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.3571056723594666</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>